--- a/resultados/comportamentoMMQ_slot09.xlsx
+++ b/resultados/comportamentoMMQ_slot09.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>can_268.mtx</t>
+          <t>can_187.mtx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.1571010218397421</v>
+        <v>0.9181185906523425</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.432171272626654</v>
+        <v>0.0002572453710204598</v>
       </c>
       <c r="H2" t="n">
-        <v>57.92135946343304</v>
+        <v>8.384601792296072</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>can_268.mtx</t>
+          <t>can_187.mtx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.3947609032075475</v>
+        <v>0.9987452244438877</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -528,10 +528,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-36.22264738244132</v>
+        <v>0.006567376653907681</v>
       </c>
       <c r="H3" t="n">
-        <v>98.55680893445455</v>
+        <v>8.37114478150591</v>
       </c>
     </row>
     <row r="4">
@@ -540,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>can_268.mtx</t>
+          <t>can_187.mtx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1538673131829483</v>
+        <v>0.9179883587370105</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -560,10 +560,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0464346987524781</v>
+        <v>3.065513665083051e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>26.0149278767704</v>
+        <v>8.384603585907483</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>can_268.mtx</t>
+          <t>can_187.mtx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.1538673131829483</v>
+        <v>0.9179883587370105</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9546268968619125</v>
+        <v>1.000030655606524</v>
       </c>
       <c r="H5" t="n">
-        <v>26.0149278767704</v>
+        <v>8.384603585907483</v>
       </c>
     </row>
     <row r="6">
@@ -604,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>can_268.mtx</t>
+          <t>can_187.mtx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.3895008207249964</v>
+        <v>0.9987517521211012</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -624,10 +624,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4918778997476057</v>
+        <v>0.0007826720690214852</v>
       </c>
       <c r="H6" t="n">
-        <v>45.2454827737432</v>
+        <v>8.371166959898815</v>
       </c>
     </row>
     <row r="7">
@@ -636,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>can_268.mtx</t>
+          <t>can_187.mtx</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.3671758690276319</v>
+        <v>0.9931736557082222</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>112.3427283703971</v>
+        <v>8.380646184927766</v>
       </c>
       <c r="G7" t="n">
-        <v>-19.75858194471588</v>
+        <v>0.0005898120047442268</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8592847722152224</v>
+        <v>-5.278835455933046e-06</v>
       </c>
     </row>
     <row r="8">
@@ -668,7 +668,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>can_268.mtx</t>
+          <t>can_187.mtx</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2989753001590368</v>
+        <v>0.7692223326219426</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -688,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-13.05401092796514</v>
+        <v>0.0008095138567017087</v>
       </c>
       <c r="H8" t="n">
-        <v>101.4656301986693</v>
+        <v>8.38321795185171</v>
       </c>
     </row>
     <row r="9">
@@ -700,7 +700,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>can_268.mtx</t>
+          <t>can_187.mtx</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.5487268694954307</v>
+        <v>0.9010576788147449</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-67.33609691402583</v>
+        <v>0.01109329273413847</v>
       </c>
       <c r="H9" t="n">
-        <v>131.9761417672219</v>
+        <v>8.366331504818445</v>
       </c>
     </row>
     <row r="10">
@@ -732,7 +732,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>can_268.mtx</t>
+          <t>can_187.mtx</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2947845998153682</v>
+        <v>0.7691014500941018</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.177268803364831</v>
+        <v>9.645570094702758e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>47.07351292566873</v>
+        <v>8.383221174439639</v>
       </c>
     </row>
     <row r="11">
@@ -764,7 +764,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>can_268.mtx</t>
+          <t>can_187.mtx</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.2947845998153682</v>
+        <v>0.7691014500941018</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -784,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8375546167622084</v>
+        <v>1.000096460352948</v>
       </c>
       <c r="H11" t="n">
-        <v>47.07351292566873</v>
+        <v>8.383221174439639</v>
       </c>
     </row>
     <row r="12">
@@ -796,7 +796,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>can_268.mtx</t>
+          <t>can_187.mtx</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5435835027329831</v>
+        <v>0.9009873532297343</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.9165508415346516</v>
+        <v>0.001321847233402774</v>
       </c>
       <c r="H12" t="n">
-        <v>71.45669137091357</v>
+        <v>8.366369422030594</v>
       </c>
     </row>
     <row r="13">
@@ -828,7 +828,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>can_268.mtx</t>
+          <t>can_187.mtx</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.6169941310512979</v>
+        <v>0.9678583120008113</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>210.4074026133364</v>
+        <v>8.369047013595432</v>
       </c>
       <c r="G13" t="n">
-        <v>-72.4767958814199</v>
+        <v>0.003131306000385174</v>
       </c>
       <c r="H13" t="n">
-        <v>5.942278495345477</v>
+        <v>-8.006179805803737e-05</v>
       </c>
     </row>
     <row r="14">
@@ -860,7 +860,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>can_634.mtx</t>
+          <t>can_229.mtx</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.03898352874776149</v>
+        <v>0.6820153773494954</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.3085661781278061</v>
+        <v>0.001067983759596111</v>
       </c>
       <c r="H14" t="n">
-        <v>29.27308852499771</v>
+        <v>8.68445169253495</v>
       </c>
     </row>
     <row r="15">
@@ -892,7 +892,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>can_634.mtx</t>
+          <t>can_229.mtx</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.1835269353362129</v>
+        <v>0.7942528273361211</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-15.77209486620407</v>
+        <v>0.009749710849661421</v>
       </c>
       <c r="H15" t="n">
-        <v>70.46866072936238</v>
+        <v>8.673075549627772</v>
       </c>
     </row>
     <row r="16">
@@ -924,7 +924,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>can_634.mtx</t>
+          <t>can_229.mtx</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.03323073169005365</v>
+        <v>0.6818955938334987</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.003045650644699772</v>
+        <v>0.0001228680662814407</v>
       </c>
       <c r="H16" t="n">
-        <v>16.12201789135731</v>
+        <v>8.684454214317894</v>
       </c>
     </row>
     <row r="17">
@@ -956,7 +956,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>can_634.mtx</t>
+          <t>can_229.mtx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.03323073169005365</v>
+        <v>0.6818955938334987</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -976,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9969589826442383</v>
+        <v>1.000122875614871</v>
       </c>
       <c r="H17" t="n">
-        <v>16.12201789135731</v>
+        <v>8.684454214317894</v>
       </c>
     </row>
     <row r="18">
@@ -988,7 +988,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>can_634.mtx</t>
+          <t>can_229.mtx</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.1662816233402077</v>
+        <v>0.7941431111491485</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1008,10 +1008,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1604959170517179</v>
+        <v>0.001121693630152117</v>
       </c>
       <c r="H18" t="n">
-        <v>24.60441569920657</v>
+        <v>8.673095143999968</v>
       </c>
     </row>
     <row r="19">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>can_634.mtx</t>
+          <t>can_229.mtx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.1009901378149036</v>
+        <v>0.9429570742000638</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>48.62941455603365</v>
+        <v>8.662778485403448</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.836697180578012</v>
+        <v>0.006316204320588842</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02037508003266941</v>
+        <v>-0.0002915678089440004</v>
       </c>
     </row>
     <row r="20">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>can_634.mtx</t>
+          <t>can_229.mtx</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.05182281206587056</v>
+        <v>0.7802668304712126</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.5392354111924899</v>
+        <v>0.0007188863381725241</v>
       </c>
       <c r="H20" t="n">
-        <v>34.34260574729277</v>
+        <v>8.690485127810497</v>
       </c>
     </row>
     <row r="21">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>can_634.mtx</t>
+          <t>can_229.mtx</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.2158647327738662</v>
+        <v>0.8462599598011846</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-20.02112100969989</v>
+        <v>0.005097268171954729</v>
       </c>
       <c r="H21" t="n">
-        <v>80.59397166908241</v>
+        <v>8.685706341153871</v>
       </c>
     </row>
     <row r="22">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>can_634.mtx</t>
+          <t>can_229.mtx</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.04712848161676866</v>
+        <v>0.780237979200493</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.005494920124580222</v>
+        <v>8.267786424198675e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>17.0680480039334</v>
+        <v>8.690486224416807</v>
       </c>
     </row>
     <row r="23">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>can_634.mtx</t>
+          <t>can_229.mtx</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.04712848161676866</v>
+        <v>0.780237979200493</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1168,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9945201493345484</v>
+        <v>1.000082681282151</v>
       </c>
       <c r="H23" t="n">
-        <v>17.0680480039334</v>
+        <v>8.690486224416807</v>
       </c>
     </row>
     <row r="24">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>can_634.mtx</t>
+          <t>can_229.mtx</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2022632054276807</v>
+        <v>0.846234245843793</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2070893330143628</v>
+        <v>0.0005862298563350157</v>
       </c>
       <c r="H24" t="n">
-        <v>27.60419353233906</v>
+        <v>8.685711213863723</v>
       </c>
     </row>
     <row r="25">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>can_634.mtx</t>
+          <t>can_229.mtx</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.1325544045578181</v>
+        <v>0.9833555657266516</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1229,13 +1229,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>60.00670510138276</v>
+        <v>8.675916608455474</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.194142240925936</v>
+        <v>0.005058445294997701</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04657731280234115</v>
+        <v>-0.000309968496916283</v>
       </c>
     </row>
     <row r="26">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>can_187.mtx</t>
+          <t>can_161.mtx</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.05061807560259733</v>
+        <v>0.702486395050143</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1264,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1790947770991005</v>
+        <v>0.0009558602172150144</v>
       </c>
       <c r="H26" t="n">
-        <v>15.43903578827943</v>
+        <v>8.804634785784433</v>
       </c>
     </row>
     <row r="27">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>can_187.mtx</t>
+          <t>can_161.mtx</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.2134014527669982</v>
+        <v>0.8546550573698538</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.909630596662167</v>
+        <v>0.01217615272474191</v>
       </c>
       <c r="H27" t="n">
-        <v>31.65377973521538</v>
+        <v>8.786833966661632</v>
       </c>
     </row>
     <row r="28">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>can_187.mtx</t>
+          <t>can_161.mtx</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.04976519622078662</v>
+        <v>0.7022516229388845</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1328,10 +1328,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.004475821240766255</v>
+        <v>0.0001084494941850877</v>
       </c>
       <c r="H28" t="n">
-        <v>10.01057889254971</v>
+        <v>8.804637282820682</v>
       </c>
     </row>
     <row r="29">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>can_187.mtx</t>
+          <t>can_161.mtx</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.04976519622078662</v>
+        <v>0.7022516229388845</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1360,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9955341803198271</v>
+        <v>1.000108455375044</v>
       </c>
       <c r="H29" t="n">
-        <v>10.01057889254971</v>
+        <v>8.804637282820682</v>
       </c>
     </row>
     <row r="30">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>can_187.mtx</t>
+          <t>can_161.mtx</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.2113408326260421</v>
+        <v>0.8544621816317152</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1392,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.1733115944589728</v>
+        <v>0.001381550624043257</v>
       </c>
       <c r="H30" t="n">
-        <v>15.04179596544186</v>
+        <v>8.786871428250677</v>
       </c>
     </row>
     <row r="31">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>can_187.mtx</t>
+          <t>can_161.mtx</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.1295585292660906</v>
+        <v>0.9438193057060064</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1421,13 +1421,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>24.25577341814233</v>
+        <v>8.785997832997703</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.06076854008539</v>
+        <v>0.004297658647939334</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01494362310146252</v>
+        <v>-0.0001285307088740107</v>
       </c>
     </row>
     <row r="32">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>can_187.mtx</t>
+          <t>can_161.mtx</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.1196350168035271</v>
+        <v>0.6730505288982024</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1456,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.022199575467418</v>
+        <v>0.000479628231678913</v>
       </c>
       <c r="H32" t="n">
-        <v>25.43293787625175</v>
+        <v>8.815464679017825</v>
       </c>
     </row>
     <row r="33">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>can_187.mtx</t>
+          <t>can_161.mtx</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.3421040020145606</v>
+        <v>0.7884761292805902</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-14.7178447412895</v>
+        <v>0.004598679076976689</v>
       </c>
       <c r="H33" t="n">
-        <v>46.25182407769967</v>
+        <v>8.809897998006607</v>
       </c>
     </row>
     <row r="34">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>can_187.mtx</t>
+          <t>can_161.mtx</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.1182741606157225</v>
+        <v>0.6729767109616279</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.02561799314248232</v>
+        <v>5.438572016855963e-05</v>
       </c>
       <c r="H34" t="n">
-        <v>12.86814361559377</v>
+        <v>8.815465174009576</v>
       </c>
     </row>
     <row r="35">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>can_187.mtx</t>
+          <t>can_161.mtx</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.1182741606157225</v>
+        <v>0.6729767109616279</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9747073633955426</v>
+        <v>1.000054387199099</v>
       </c>
       <c r="H35" t="n">
-        <v>12.86814361559377</v>
+        <v>8.815465174009576</v>
       </c>
     </row>
     <row r="36">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>can_187.mtx</t>
+          <t>can_161.mtx</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.3396248631002337</v>
+        <v>0.7884085484569399</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.3696225910111327</v>
+        <v>0.0005214569414251593</v>
       </c>
       <c r="H36" t="n">
-        <v>21.7207115981804</v>
+        <v>8.80990236540687</v>
       </c>
     </row>
     <row r="37">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>can_187.mtx</t>
+          <t>can_161.mtx</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.2886292591246886</v>
+        <v>0.9103758752457585</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1613,13 +1613,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>46.74631229248173</v>
+        <v>8.806233082161903</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.940670594597415</v>
+        <v>0.002618656771465319</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1967388407651999</v>
+        <v>-0.0001125804494624695</v>
       </c>
     </row>
     <row r="38">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>can_256.mtx</t>
+          <t>can_292.mtx</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.1750821568025094</v>
+        <v>0.6406950597698249</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.392540916171277</v>
+        <v>0.002432138225036137</v>
       </c>
       <c r="H38" t="n">
-        <v>65.80449379047165</v>
+        <v>12.14032252463125</v>
       </c>
     </row>
     <row r="39">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>can_256.mtx</t>
+          <t>can_292.mtx</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.4173320790542895</v>
+        <v>0.7387819004983736</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1680,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-40.91332446218671</v>
+        <v>0.01997006097855002</v>
       </c>
       <c r="H39" t="n">
-        <v>106.8983812766957</v>
+        <v>12.11891445526554</v>
       </c>
     </row>
     <row r="40">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>can_256.mtx</t>
+          <t>can_292.mtx</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.1697575522246167</v>
+        <v>0.6405689700567977</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.05634129830334118</v>
+        <v>0.0002000771424389091</v>
       </c>
       <c r="H40" t="n">
-        <v>30.34140594035702</v>
+        <v>12.14033053001251</v>
       </c>
     </row>
     <row r="41">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>can_256.mtx</t>
+          <t>can_292.mtx</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1733,7 +1733,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.1697575522246167</v>
+        <v>0.6405689700567977</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1744,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9452164800516514</v>
+        <v>1.000200097159205</v>
       </c>
       <c r="H41" t="n">
-        <v>30.34140594035702</v>
+        <v>12.14033053001251</v>
       </c>
     </row>
     <row r="42">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>can_256.mtx</t>
+          <t>can_292.mtx</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.4085316251113791</v>
+        <v>0.7386606269248718</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.5272956068700417</v>
+        <v>0.001642841648369855</v>
       </c>
       <c r="H42" t="n">
-        <v>51.64706374117367</v>
+        <v>12.11896821102672</v>
       </c>
     </row>
     <row r="43">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>can_256.mtx</t>
+          <t>can_292.mtx</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.4028834687194065</v>
+        <v>0.928777928792737</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1805,13 +1805,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>128.1476115328705</v>
+        <v>12.08382727843099</v>
       </c>
       <c r="G43" t="n">
-        <v>-25.17358016363758</v>
+        <v>0.01749753721177579</v>
       </c>
       <c r="H43" t="n">
-        <v>1.222414073380371</v>
+        <v>-0.0009415874366712282</v>
       </c>
     </row>
     <row r="44">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>can_256.mtx</t>
+          <t>can_292.mtx</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1829,7 +1829,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.198586953844423</v>
+        <v>0.7651858067879094</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.691678021143645</v>
+        <v>0.0003770682390495495</v>
       </c>
       <c r="H44" t="n">
-        <v>72.94073952363493</v>
+        <v>12.16061242673226</v>
       </c>
     </row>
     <row r="45">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>can_256.mtx</t>
+          <t>can_292.mtx</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.4453601116778533</v>
+        <v>0.8323199394494639</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1872,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>-46.06170261252718</v>
+        <v>0.002677494441705088</v>
       </c>
       <c r="H45" t="n">
-        <v>113.1353356911793</v>
+        <v>12.15809838431431</v>
       </c>
     </row>
     <row r="46">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>can_256.mtx</t>
+          <t>can_292.mtx</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1893,7 +1893,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.193151999645765</v>
+        <v>0.7651746187173304</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1904,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.0731190693653378</v>
+        <v>3.100130095731401e-05</v>
       </c>
       <c r="H46" t="n">
-        <v>33.29033718380588</v>
+        <v>12.1606126390825</v>
       </c>
     </row>
     <row r="47">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>can_256.mtx</t>
+          <t>can_292.mtx</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1925,7 +1925,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.193151999645765</v>
+        <v>0.7651746187173304</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1936,10 +1936,10 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9294901496343968</v>
+        <v>1.000031001781503</v>
       </c>
       <c r="H47" t="n">
-        <v>33.29033718380588</v>
+        <v>12.1606126390825</v>
       </c>
     </row>
     <row r="48">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>can_256.mtx</t>
+          <t>can_292.mtx</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.4367186963655003</v>
+        <v>0.8323098444683147</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.594157118730428</v>
+        <v>0.0002201349937665413</v>
       </c>
       <c r="H48" t="n">
-        <v>56.03544306993632</v>
+        <v>12.15809933955852</v>
       </c>
     </row>
     <row r="49">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>can_256.mtx</t>
+          <t>can_292.mtx</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.4476258388978239</v>
+        <v>0.9758631691148836</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1997,13 +1997,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>144.2020090562403</v>
+        <v>12.15275320980574</v>
       </c>
       <c r="G49" t="n">
-        <v>-32.41465409587067</v>
+        <v>0.002718111578865845</v>
       </c>
       <c r="H49" t="n">
-        <v>1.781531738315135</v>
+        <v>-0.0001672173814157569</v>
       </c>
     </row>
     <row r="50">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.06911914074553016</v>
+        <v>0.5351015773070424</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2032,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.33057599926428</v>
+        <v>0.003138075707471829</v>
       </c>
       <c r="H50" t="n">
-        <v>52.97315757917689</v>
+        <v>14.74210201280369</v>
       </c>
     </row>
     <row r="51">
@@ -2053,7 +2053,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.2539500544778011</v>
+        <v>0.7670482100621819</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>-35.67709772383026</v>
+        <v>0.07156306677788699</v>
       </c>
       <c r="H51" t="n">
-        <v>124.4076526859009</v>
+        <v>14.60003927259551</v>
       </c>
     </row>
     <row r="52">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.06451273680640512</v>
+        <v>0.5336350444717302</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.01067130652971508</v>
+        <v>0.0002123610768743508</v>
       </c>
       <c r="H52" t="n">
-        <v>20.13697246480672</v>
+        <v>14.74201800646764</v>
       </c>
     </row>
     <row r="53">
@@ -2117,7 +2117,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.06451273680640512</v>
+        <v>0.5336350444717302</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9893854298653131</v>
+        <v>1.000212383627084</v>
       </c>
       <c r="H53" t="n">
-        <v>20.13697246480672</v>
+        <v>14.74201800646764</v>
       </c>
     </row>
     <row r="54">
@@ -2149,7 +2149,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.2432821286087004</v>
+        <v>0.7656382433128102</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2160,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2898843756162127</v>
+        <v>0.004845034441709538</v>
       </c>
       <c r="H54" t="n">
-        <v>36.08896138597279</v>
+        <v>14.60087491544715</v>
       </c>
     </row>
     <row r="55">
@@ -2181,7 +2181,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.1742282336517904</v>
+        <v>0.8284368038092562</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2189,13 +2189,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>100.7392639592657</v>
+        <v>14.63966060413033</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.844135960185475</v>
+        <v>0.01428332155850958</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1514781386260743</v>
+        <v>-0.0002371328904476114</v>
       </c>
     </row>
     <row r="56">
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.1028333047440993</v>
+        <v>0.7428458956563392</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.964340221830446</v>
+        <v>0.001813789048539837</v>
       </c>
       <c r="H56" t="n">
-        <v>72.14400521455187</v>
+        <v>14.80266329946217</v>
       </c>
     </row>
     <row r="57">
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.31534736292232</v>
+        <v>0.9006430311984538</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>-50.56604356662159</v>
+        <v>0.02819617429135395</v>
       </c>
       <c r="H57" t="n">
-        <v>151.7652044694914</v>
+        <v>14.75656489916378</v>
       </c>
     </row>
     <row r="58">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.09841370243099298</v>
+        <v>0.7423859274445799</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2288,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02407098940737692</v>
+        <v>0.0001223465585030351</v>
       </c>
       <c r="H58" t="n">
-        <v>23.62371022041467</v>
+        <v>14.80267105340913</v>
       </c>
     </row>
     <row r="59">
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.09841370243099298</v>
+        <v>0.7423859274445799</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9762164062738788</v>
+        <v>1.000122354043149</v>
       </c>
       <c r="H59" t="n">
-        <v>23.62371022041467</v>
+        <v>14.80267105340913</v>
       </c>
     </row>
     <row r="60">
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.3060478134659227</v>
+        <v>0.9003000886062511</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2352,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.4134890559193768</v>
+        <v>0.001902159660434745</v>
       </c>
       <c r="H60" t="n">
-        <v>45.41221057883965</v>
+        <v>14.75670458151989</v>
       </c>
     </row>
     <row r="61">
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.2516803618713091</v>
+        <v>0.9390880384893765</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2381,13 +2381,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>143.8569583443212</v>
+        <v>14.76879643617445</v>
       </c>
       <c r="G61" t="n">
-        <v>-17.3069308477843</v>
+        <v>0.00679569018595971</v>
       </c>
       <c r="H61" t="n">
-        <v>0.4945720905501331</v>
+        <v>-0.0001509667011339381</v>
       </c>
     </row>
     <row r="62">
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.06774752054380301</v>
+        <v>0.7299190793282818</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2416,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.5486822024165732</v>
+        <v>0.001216490679235098</v>
       </c>
       <c r="H62" t="n">
-        <v>25.03824657606129</v>
+        <v>8.908275838382711</v>
       </c>
     </row>
     <row r="63">
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.2512840047782912</v>
+        <v>0.9234146503404174</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2448,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>-15.1004589395151</v>
+        <v>0.02653313365428209</v>
       </c>
       <c r="H63" t="n">
-        <v>55.64643131398093</v>
+        <v>8.856950338576045</v>
       </c>
     </row>
     <row r="64">
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.06539889759206902</v>
+        <v>0.7292095699984943</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2480,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.009371457449536783</v>
+        <v>0.0001362430127443289</v>
       </c>
       <c r="H64" t="n">
-        <v>11.77324761656162</v>
+        <v>8.908280960394704</v>
       </c>
     </row>
     <row r="65">
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.06539889759206902</v>
+        <v>0.7292095699984943</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2512,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9906723178051231</v>
+        <v>1.000136252294245</v>
       </c>
       <c r="H65" t="n">
-        <v>11.77324761656162</v>
+        <v>8.908280960394704</v>
       </c>
     </row>
     <row r="66">
@@ -2533,7 +2533,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.2462857716582117</v>
+        <v>0.9229662808180187</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2544,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2598813648157479</v>
+        <v>0.002972348397248872</v>
       </c>
       <c r="H66" t="n">
-        <v>19.96885137971469</v>
+        <v>8.857201031860422</v>
       </c>
     </row>
     <row r="67">
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.1709802720090018</v>
+        <v>0.9517061139106707</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2573,13 +2573,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>45.19146009198744</v>
+        <v>8.878314515730604</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.235777337873394</v>
+        <v>0.004417106748896356</v>
       </c>
       <c r="H67" t="n">
-        <v>0.06107034398765502</v>
+        <v>-6.667950145127825e-05</v>
       </c>
     </row>
     <row r="68">
@@ -2597,7 +2597,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.142335243343422</v>
+        <v>0.7418476344619448</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>-2.475106987153334</v>
+        <v>0.002185495184897611</v>
       </c>
       <c r="H68" t="n">
-        <v>43.59465878165346</v>
+        <v>8.91432800151629</v>
       </c>
     </row>
     <row r="69">
@@ -2629,7 +2629,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.3749739327888769</v>
+        <v>0.8834940152240824</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2640,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>-29.24389697251437</v>
+        <v>0.02664894335489301</v>
       </c>
       <c r="H69" t="n">
-        <v>79.50895571885134</v>
+        <v>8.876427462049158</v>
       </c>
     </row>
     <row r="70">
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.1394962079967517</v>
+        <v>0.7414525637949803</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2672,10 +2672,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.04260010066536451</v>
+        <v>0.0002445811471840015</v>
       </c>
       <c r="H70" t="n">
-        <v>16.23693547482745</v>
+        <v>8.91434382261056</v>
       </c>
     </row>
     <row r="71">
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.1394962079967517</v>
+        <v>0.7414525637949803</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2704,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.958294534799114</v>
+        <v>1.000244611059592</v>
       </c>
       <c r="H71" t="n">
-        <v>16.23693547482745</v>
+        <v>8.91434382261056</v>
       </c>
     </row>
     <row r="72">
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.3702563487844897</v>
+        <v>0.8831956464719471</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2736,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5052166276662117</v>
+        <v>0.002982602954386152</v>
       </c>
       <c r="H72" t="n">
-        <v>30.2477084102834</v>
+        <v>8.876607474310045</v>
       </c>
     </row>
     <row r="73">
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.3368511537364715</v>
+        <v>0.9726607434448524</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2765,13 +2765,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>86.95613697537244</v>
+        <v>8.874176493709692</v>
       </c>
       <c r="G73" t="n">
-        <v>-14.30096467634942</v>
+        <v>0.009620959593526206</v>
       </c>
       <c r="H73" t="n">
-        <v>0.563136080437909</v>
+        <v>-0.0002974185763451442</v>
       </c>
     </row>
     <row r="74">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>can_161.mtx</t>
+          <t>can_256.mtx</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.1359342533598503</v>
+        <v>0.5973009635212685</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>-1.30718173587857</v>
+        <v>0.002748225074300894</v>
       </c>
       <c r="H74" t="n">
-        <v>27.98983707452335</v>
+        <v>16.00029271388112</v>
       </c>
     </row>
     <row r="75">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>can_161.mtx</t>
+          <t>can_256.mtx</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.3660231437822425</v>
+        <v>0.7357767446579444</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2832,10 +2832,10 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>-16.27861776317887</v>
+        <v>0.02941525865952075</v>
       </c>
       <c r="H75" t="n">
-        <v>48.78826346406246</v>
+        <v>15.96175429190001</v>
       </c>
     </row>
     <row r="76">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>can_161.mtx</t>
+          <t>can_256.mtx</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.1344155786335657</v>
+        <v>0.5970348355097114</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2864,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.03250737037594528</v>
+        <v>0.0001715447862085324</v>
       </c>
       <c r="H76" t="n">
-        <v>14.20439022338973</v>
+        <v>16.00029833937239</v>
       </c>
     </row>
     <row r="77">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>can_161.mtx</t>
+          <t>can_256.mtx</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2885,7 +2885,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.1344155786335657</v>
+        <v>0.5970348355097114</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2896,10 +2896,10 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0.96801531516822</v>
+        <v>1.000171559500857</v>
       </c>
       <c r="H77" t="n">
-        <v>14.20439022338973</v>
+        <v>16.00029833937239</v>
       </c>
     </row>
     <row r="78">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>can_161.mtx</t>
+          <t>can_256.mtx</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.3634315124065021</v>
+        <v>0.7355186489077729</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4056580150580092</v>
+        <v>0.00183619366365013</v>
       </c>
       <c r="H78" t="n">
-        <v>23.86899532328481</v>
+        <v>15.9618514743662</v>
       </c>
     </row>
     <row r="79">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>can_161.mtx</t>
+          <t>can_256.mtx</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.3234233683359157</v>
+        <v>0.8908471835996002</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2957,13 +2957,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>51.97616270194462</v>
+        <v>15.93828063236768</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.564484073466726</v>
+        <v>0.01599148316022373</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2844228335267344</v>
+        <v>-0.0006306313374250158</v>
       </c>
     </row>
     <row r="80">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>can_161.mtx</t>
+          <t>can_256.mtx</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.1995459283711071</v>
+        <v>0.6554440775497076</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.877071256159214</v>
+        <v>0.0008908851683637212</v>
       </c>
       <c r="H80" t="n">
-        <v>37.58900116506085</v>
+        <v>16.0263791279288</v>
       </c>
     </row>
     <row r="81">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>can_161.mtx</t>
+          <t>can_256.mtx</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.4469086199885369</v>
+        <v>0.7722183344300164</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3024,10 +3024,10 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>-23.26793865156448</v>
+        <v>0.008566075263173562</v>
       </c>
       <c r="H81" t="n">
-        <v>57.87866596086354</v>
+        <v>16.01598589219603</v>
       </c>
     </row>
     <row r="82">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>can_161.mtx</t>
+          <t>can_256.mtx</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.1979368907321139</v>
+        <v>0.6553674258322794</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3056,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.07166060853706886</v>
+        <v>5.556618273189859e-05</v>
       </c>
       <c r="H82" t="n">
-        <v>18.05519095760395</v>
+        <v>16.02638000691018</v>
       </c>
     </row>
     <row r="83">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>can_161.mtx</t>
+          <t>can_256.mtx</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3077,7 +3077,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.1979368907321139</v>
+        <v>0.6553674258322794</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0.93084676365163</v>
+        <v>1.000055567726561</v>
       </c>
       <c r="H83" t="n">
-        <v>18.05519095760395</v>
+        <v>16.02638000691018</v>
       </c>
     </row>
     <row r="84">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>can_161.mtx</t>
+          <t>can_256.mtx</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3109,7 +3109,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.4444753406252612</v>
+        <v>0.7721470010903962</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.5803103509718778</v>
+        <v>0.0005342887824151935</v>
       </c>
       <c r="H84" t="n">
-        <v>29.96929658355421</v>
+        <v>16.01599411091316</v>
       </c>
     </row>
     <row r="85">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>can_161.mtx</t>
+          <t>can_256.mtx</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.4492972360343743</v>
+        <v>0.9011887962355123</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>73.5753739672133</v>
+        <v>16.00869759684169</v>
       </c>
       <c r="G85" t="n">
-        <v>-16.37196105696639</v>
+        <v>0.004987825298306043</v>
       </c>
       <c r="H85" t="n">
-        <v>0.899659320053812</v>
+        <v>-0.0002156284278916421</v>
       </c>
     </row>
     <row r="86">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>can_715.mtx</t>
+          <t>can_268.mtx</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.05863615193536373</v>
+        <v>0.670047403063091</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3184,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.698081261517971</v>
+        <v>0.003406766152793252</v>
       </c>
       <c r="H86" t="n">
-        <v>38.07268306378765</v>
+        <v>14.40791681308237</v>
       </c>
     </row>
     <row r="87">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>can_715.mtx</t>
+          <t>can_268.mtx</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3205,7 +3205,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.2313085257177287</v>
+        <v>0.8154150870374565</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3216,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>-21.89858977464953</v>
+        <v>0.03914001636670282</v>
       </c>
       <c r="H87" t="n">
-        <v>85.14803686416091</v>
+        <v>14.35422824939801</v>
       </c>
     </row>
     <row r="88">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>can_715.mtx</t>
+          <t>can_268.mtx</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.04550097311414363</v>
+        <v>0.6696529040663652</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3248,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.006539929201324953</v>
+        <v>0.0002359767026980853</v>
       </c>
       <c r="H88" t="n">
-        <v>18.90477567562369</v>
+        <v>14.40793250026582</v>
       </c>
     </row>
     <row r="89">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>can_715.mtx</t>
+          <t>can_268.mtx</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3269,7 +3269,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.04550097311414363</v>
+        <v>0.6696529040663652</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9934814095922468</v>
+        <v>1.00023600454739</v>
       </c>
       <c r="H89" t="n">
-        <v>18.90477567562369</v>
+        <v>14.40793250026582</v>
       </c>
     </row>
     <row r="90">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>can_715.mtx</t>
+          <t>can_268.mtx</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3301,7 +3301,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.1982858121004685</v>
+        <v>0.8150675048270239</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3312,10 +3312,10 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.2156282223812965</v>
+        <v>0.002711334571460191</v>
       </c>
       <c r="H90" t="n">
-        <v>30.29944486946368</v>
+        <v>14.35444356922171</v>
       </c>
     </row>
     <row r="91">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>can_715.mtx</t>
+          <t>can_268.mtx</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.1501533313098043</v>
+        <v>0.9385058892510441</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3341,13 +3341,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>66.83150609827672</v>
+        <v>14.33800007917452</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.149140025656663</v>
+        <v>0.01726956684141775</v>
       </c>
       <c r="H91" t="n">
-        <v>0.07042977069670801</v>
+        <v>-0.0006027304647227927</v>
       </c>
     </row>
     <row r="92">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>can_715.mtx</t>
+          <t>can_268.mtx</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3365,7 +3365,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.09704707505464286</v>
+        <v>0.6833183618795186</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3376,10 +3376,10 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.89972979004623</v>
+        <v>0.001324919691633113</v>
       </c>
       <c r="H92" t="n">
-        <v>53.28355678029232</v>
+        <v>14.44777400021092</v>
       </c>
     </row>
     <row r="93">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>can_715.mtx</t>
+          <t>can_268.mtx</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.3046632212095209</v>
+        <v>0.7562262862214928</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>-33.81629346749424</v>
+        <v>0.009489663713972352</v>
       </c>
       <c r="H93" t="n">
-        <v>107.8789527343722</v>
+        <v>14.43878316293329</v>
       </c>
     </row>
     <row r="94">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>can_715.mtx</t>
+          <t>can_268.mtx</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.08148675899476721</v>
+        <v>0.6832888671486526</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3440,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.0185120940809597</v>
+        <v>9.165296456558281e-05</v>
       </c>
       <c r="H94" t="n">
-        <v>22.13856394774168</v>
+        <v>14.44777601572681</v>
       </c>
     </row>
     <row r="95">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>can_715.mtx</t>
+          <t>can_268.mtx</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.08148675899476721</v>
+        <v>0.6832888671486526</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9816582022662264</v>
+        <v>1.000091657164827</v>
       </c>
       <c r="H95" t="n">
-        <v>22.13856394774168</v>
+        <v>14.44777601572681</v>
       </c>
     </row>
     <row r="96">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>can_715.mtx</t>
+          <t>can_268.mtx</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3493,7 +3493,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.2707788118473801</v>
+        <v>0.7561983729300076</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3504,10 +3504,10 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.3390273591343262</v>
+        <v>0.0006564613212938711</v>
       </c>
       <c r="H96" t="n">
-        <v>38.57780422312725</v>
+        <v>14.43879292451776</v>
       </c>
     </row>
     <row r="97">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>can_715.mtx</t>
+          <t>can_268.mtx</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.2392659050849043</v>
+        <v>0.9459782069616148</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3533,13 +3533,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>101.0028230408751</v>
+        <v>14.41514463000956</v>
       </c>
       <c r="G97" t="n">
-        <v>-11.13571680822355</v>
+        <v>0.01104430656011862</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3078662339392441</v>
+        <v>-0.0006942419191776773</v>
       </c>
     </row>
     <row r="98">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>can_229.mtx</t>
+          <t>can_715.mtx</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.2135067924366588</v>
+        <v>0.672558737420752</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.720693850326011</v>
+        <v>0.008138592582338688</v>
       </c>
       <c r="H98" t="n">
-        <v>43.41719913488485</v>
+        <v>15.00708145329336</v>
       </c>
     </row>
     <row r="99">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>can_229.mtx</t>
+          <t>can_715.mtx</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3589,7 +3589,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.4625537363323882</v>
+        <v>0.8937155599157396</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>-27.86332171157766</v>
+        <v>0.1979850244544279</v>
       </c>
       <c r="H99" t="n">
-        <v>65.70912654658666</v>
+        <v>14.60406953971905</v>
       </c>
     </row>
     <row r="100">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>can_229.mtx</t>
+          <t>can_715.mtx</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.2104298074087865</v>
+        <v>0.6695003827541348</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.08629675345761806</v>
+        <v>0.0005373837065969414</v>
       </c>
       <c r="H100" t="n">
-        <v>19.44694276230554</v>
+        <v>15.00698889861464</v>
       </c>
     </row>
     <row r="101">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>can_229.mtx</t>
+          <t>can_715.mtx</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3653,7 +3653,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.2104298074087865</v>
+        <v>0.6695003827541348</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3664,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0.9173219723582233</v>
+        <v>1.000537528123089</v>
       </c>
       <c r="H101" t="n">
-        <v>19.44694276230554</v>
+        <v>15.00698889861464</v>
       </c>
     </row>
     <row r="102">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>can_229.mtx</t>
+          <t>can_715.mtx</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.4579655976558187</v>
+        <v>0.891609517310614</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3696,10 +3696,10 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.6477254486722672</v>
+        <v>0.01308714489605067</v>
       </c>
       <c r="H102" t="n">
-        <v>32.69672569961387</v>
+        <v>14.61225540712257</v>
       </c>
     </row>
     <row r="103">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>can_229.mtx</t>
+          <t>can_715.mtx</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.4749960510630769</v>
+        <v>0.9412376555727185</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3725,13 +3725,13 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>86.86989412131159</v>
+        <v>14.7618702391247</v>
       </c>
       <c r="G103" t="n">
-        <v>-21.10177184489672</v>
+        <v>0.0321611329722439</v>
       </c>
       <c r="H103" t="n">
-        <v>1.241505571040765</v>
+        <v>-0.0004532554790548184</v>
       </c>
     </row>
     <row r="104">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>can_229.mtx</t>
+          <t>can_715.mtx</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3749,7 +3749,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.299065333609929</v>
+        <v>0.3463316053778043</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3760,10 +3760,10 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>-7.526479512486082</v>
+        <v>0.009476650038064242</v>
       </c>
       <c r="H104" t="n">
-        <v>58.86426926744161</v>
+        <v>15.11057041778437</v>
       </c>
     </row>
     <row r="105">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>can_229.mtx</t>
+          <t>can_715.mtx</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.5487991721420131</v>
+        <v>0.5474337022942147</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3792,10 +3792,10 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>-38.82031719188784</v>
+        <v>0.1724994396916057</v>
       </c>
       <c r="H105" t="n">
-        <v>76.45087208418772</v>
+        <v>14.80192999679644</v>
       </c>
     </row>
     <row r="106">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>can_229.mtx</t>
+          <t>can_715.mtx</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.2953675937504489</v>
+        <v>0.3468255522247028</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3824,10 +3824,10 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.1747895947609611</v>
+        <v>0.0006257271776487379</v>
       </c>
       <c r="H106" t="n">
-        <v>27.85942617665731</v>
+        <v>15.10964286201363</v>
       </c>
     </row>
     <row r="107">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>can_229.mtx</t>
+          <t>can_715.mtx</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.2953675937504489</v>
+        <v>0.3468255522247028</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3856,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0.8396336655071627</v>
+        <v>1.000625922985738</v>
       </c>
       <c r="H107" t="n">
-        <v>27.85942617665731</v>
+        <v>15.10964286201363</v>
       </c>
     </row>
     <row r="108">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>can_229.mtx</t>
+          <t>can_715.mtx</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3877,7 +3877,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.5441121840897158</v>
+        <v>0.5480417631568663</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3888,10 +3888,10 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.903278946100893</v>
+        <v>0.01138805211711308</v>
       </c>
       <c r="H108" t="n">
-        <v>42.01682786450623</v>
+        <v>14.80491204922916</v>
       </c>
     </row>
     <row r="109">
@@ -3900,7 +3900,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>can_229.mtx</t>
+          <t>can_715.mtx</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3909,7 +3909,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.6169975073114912</v>
+        <v>0.7552908784947957</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3917,13 +3917,13 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>121.6582171200053</v>
+        <v>14.731258065702</v>
       </c>
       <c r="G109" t="n">
-        <v>-41.77772379570268</v>
+        <v>0.06389276805831894</v>
       </c>
       <c r="H109" t="n">
-        <v>3.425124428321661</v>
+        <v>-0.001600474059419259</v>
       </c>
     </row>
     <row r="110">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>can_292.mtx</t>
+          <t>can_634.mtx</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.248017071691189</v>
+        <v>0.3821513860748032</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3952,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>-7.373707343691118</v>
+        <v>0.002150253809973182</v>
       </c>
       <c r="H110" t="n">
-        <v>71.13198582064055</v>
+        <v>13.73846763534662</v>
       </c>
     </row>
     <row r="111">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>can_292.mtx</t>
+          <t>can_634.mtx</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3973,7 +3973,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.4988365009152653</v>
+        <v>0.6601826896717259</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3984,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>-46.54789294568258</v>
+        <v>0.0841509983777366</v>
       </c>
       <c r="H111" t="n">
-        <v>100.9529737505046</v>
+        <v>13.52960163955835</v>
       </c>
     </row>
     <row r="112">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>can_292.mtx</t>
+          <t>can_634.mtx</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.2399009448920134</v>
+        <v>0.3799048982136704</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4016,10 +4016,10 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.1190272868440617</v>
+        <v>0.0001564451415825922</v>
       </c>
       <c r="H112" t="n">
-        <v>31.46556942585763</v>
+        <v>13.73806356941834</v>
       </c>
     </row>
     <row r="113">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>can_292.mtx</t>
+          <t>can_634.mtx</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.2399009448920134</v>
+        <v>0.3799048982136704</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4048,10 +4048,10 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>0.8877835756194492</v>
+        <v>1.000156457379762</v>
       </c>
       <c r="H113" t="n">
-        <v>31.46556942585763</v>
+        <v>13.73806356941834</v>
       </c>
     </row>
     <row r="114">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>can_292.mtx</t>
+          <t>can_634.mtx</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4069,7 +4069,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.4874444709099285</v>
+        <v>0.6575504452394987</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4080,10 +4080,10 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.7552120918176101</v>
+        <v>0.006128361455533447</v>
       </c>
       <c r="H114" t="n">
-        <v>51.2319018979458</v>
+        <v>13.53059800743627</v>
       </c>
     </row>
     <row r="115">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>can_292.mtx</t>
+          <t>can_634.mtx</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.5355879478245777</v>
+        <v>0.6767256285574383</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4109,13 +4109,13 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>145.0488622055814</v>
+        <v>13.618089726381</v>
       </c>
       <c r="G115" t="n">
-        <v>-41.48918875212538</v>
+        <v>0.01040533610883005</v>
       </c>
       <c r="H115" t="n">
-        <v>2.842956784036188</v>
+        <v>-0.0001044947126437566</v>
       </c>
     </row>
     <row r="116">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>can_292.mtx</t>
+          <t>can_634.mtx</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4133,7 +4133,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.2978314643111684</v>
+        <v>0.5335739517660336</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4144,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>-10.81930556591518</v>
+        <v>0.001069341666600797</v>
       </c>
       <c r="H116" t="n">
-        <v>84.26713500311394</v>
+        <v>13.8128130417014</v>
       </c>
     </row>
     <row r="117">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>can_292.mtx</t>
+          <t>can_634.mtx</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4165,7 +4165,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.5472016053966435</v>
+        <v>0.7524315722927792</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4176,10 +4176,10 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>-55.83818443249952</v>
+        <v>0.03023150843561278</v>
       </c>
       <c r="H117" t="n">
-        <v>109.5962520519636</v>
+        <v>13.7470739686975</v>
       </c>
     </row>
     <row r="118">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>can_292.mtx</t>
+          <t>can_634.mtx</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.2889325648093106</v>
+        <v>0.532392023273428</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.1749506154508329</v>
+        <v>7.733441204817825e-05</v>
       </c>
       <c r="H118" t="n">
-        <v>38.96568526302622</v>
+        <v>13.81279179405349</v>
       </c>
     </row>
     <row r="119">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>can_292.mtx</t>
+          <t>can_634.mtx</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4229,7 +4229,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.2889325648093106</v>
+        <v>0.532392023273428</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4240,10 +4240,10 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0.839498477999388</v>
+        <v>1.000077337402431</v>
       </c>
       <c r="H119" t="n">
-        <v>38.96568526302622</v>
+        <v>13.81279179405349</v>
       </c>
     </row>
     <row r="120">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>can_292.mtx</t>
+          <t>can_634.mtx</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.5357189594461628</v>
+        <v>0.7513437045945147</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4272,10 +4272,10 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.9070458606125467</v>
+        <v>0.002187174716147342</v>
       </c>
       <c r="H120" t="n">
-        <v>59.03516449469678</v>
+        <v>13.74724081902337</v>
       </c>
     </row>
     <row r="121">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>can_292.mtx</t>
+          <t>can_634.mtx</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.6153220673791014</v>
+        <v>0.7182831240055869</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4301,13 +4301,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>174.6573122137013</v>
+        <v>13.77975201968091</v>
       </c>
       <c r="G121" t="n">
-        <v>-60.12303858987199</v>
+        <v>0.003929940735041315</v>
       </c>
       <c r="H121" t="n">
-        <v>4.930373302395682</v>
+        <v>-4.68950666957382e-05</v>
       </c>
     </row>
   </sheetData>
